--- a/data/trans_orig/P43B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BEFB06-6BBC-481B-A381-26CE3F9297FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCBA53C-FB3F-4AFC-BA3B-B3B4306ABBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89192C30-4DEE-4AE2-90B2-57EA8E84E027}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22CAC478-09D2-4DBE-A863-53187EF56E91}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="129">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -127,19 +127,19 @@
     <t>11,67%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -148,19 +148,19 @@
     <t>19,55%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,37 +169,37 @@
     <t>17,36%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -214,13 +214,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,0%</t>
+    <t>14,99%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>85,0%</t>
+    <t>85,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -229,91 +229,91 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -322,103 +322,109 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>7,66%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>92,34%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
 </sst>
 </file>
@@ -830,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC90317-5DF7-4655-AEA3-1479EDFA45B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D436D-FD6A-41F8-9C5E-95DA2225F4A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1857,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7DBD94-95C8-439A-B7A8-BF730FDFF4A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C653B4-BC55-48A2-8ECF-404514B7F75B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611ECAD7-635B-42F8-BBF5-417692565342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEF2A6F-5E0F-4799-9CF4-969B3507BF2E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3176,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3191,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3225,13 @@
         <v>213699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>435</v>
@@ -3234,13 +3240,13 @@
         <v>213699</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3325,13 @@
         <v>54930</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3334,13 +3340,13 @@
         <v>54930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>340507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>594</v>
@@ -3383,13 +3389,13 @@
         <v>340507</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3474,13 @@
         <v>68892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -3483,13 +3489,13 @@
         <v>68892</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3523,13 @@
         <v>340803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>339</v>
@@ -3532,13 +3538,13 @@
         <v>340803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3623,13 @@
         <v>113522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3632,13 +3638,13 @@
         <v>113522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3672,13 @@
         <v>374688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>591</v>
@@ -3681,13 +3687,13 @@
         <v>374688</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3772,13 @@
         <v>265616</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>404</v>
@@ -3781,13 +3787,13 @@
         <v>265616</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3821,13 @@
         <v>1316220</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>2061</v>
@@ -3830,13 +3836,13 @@
         <v>1316220</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCBA53C-FB3F-4AFC-BA3B-B3B4306ABBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E235EBEB-E6CD-4723-924F-A740C00D06C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22CAC478-09D2-4DBE-A863-53187EF56E91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF7A8BF1-0CFC-42BB-BEB5-8E8BF98402F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -79,10 +79,10 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,22 +91,22 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>12,18%</t>
@@ -118,49 +118,49 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,43 +169,43 @@
     <t>17,36%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha mamografía en 2015 (Tasa respuesta: 23,37%)</t>
+    <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
   </si>
   <si>
     <t>4,39%</t>
@@ -214,13 +214,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,99%</t>
+    <t>13,15%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>85,01%</t>
+    <t>86,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -229,91 +229,91 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
@@ -836,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236D436D-FD6A-41F8-9C5E-95DA2225F4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D27E99-B6AF-4F93-9507-E24A0709BB40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1863,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C653B4-BC55-48A2-8ECF-404514B7F75B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4A0ABD-1037-461A-94E3-4C4A61E6A789}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEF2A6F-5E0F-4799-9CF4-969B3507BF2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AB3F9-2299-4FD2-89A3-7F5CE8567C70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E235EBEB-E6CD-4723-924F-A740C00D06C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1167857-46B0-40DC-B647-4F0BB51635FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF7A8BF1-0CFC-42BB-BEB5-8E8BF98402F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{747A46A5-2018-45A1-964F-4FDD69CEEAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>6,46%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -127,19 +127,19 @@
     <t>11,67%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -148,19 +148,19 @@
     <t>19,55%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,37 +169,37 @@
     <t>17,36%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -214,13 +214,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,15%</t>
+    <t>15,0%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>86,85%</t>
+    <t>85,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -229,37 +229,37 @@
     <t>9,24%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>10,42%</t>
@@ -268,13 +268,13 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>14,27%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>85,58%</t>
+    <t>85,73%</t>
   </si>
   <si>
     <t>92,58%</t>
@@ -283,19 +283,19 @@
     <t>17,53%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>12,38%</t>
@@ -304,13 +304,13 @@
     <t>10,88%</t>
   </si>
   <si>
-    <t>14,24%</t>
+    <t>14,1%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>85,76%</t>
+    <t>85,9%</t>
   </si>
   <si>
     <t>89,12%</t>
@@ -322,109 +322,103 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>7,66%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>92,34%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
 </sst>
 </file>
@@ -836,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D27E99-B6AF-4F93-9507-E24A0709BB40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5856FA3F-316B-4131-BA13-25A988A115EF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1863,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4A0ABD-1037-461A-94E3-4C4A61E6A789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87A7257-D4C0-457D-A2CC-4E0DA8D6EEB2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388AB3F9-2299-4FD2-89A3-7F5CE8567C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95130CC0-14BF-4C29-8BC2-A0F94B083DF1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3176,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -3197,7 +3191,7 @@
         <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3219,13 @@
         <v>213699</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>435</v>
@@ -3240,13 +3234,13 @@
         <v>213699</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3319,13 @@
         <v>54930</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -3340,13 +3334,13 @@
         <v>54930</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3368,13 @@
         <v>340507</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>594</v>
@@ -3389,13 +3383,13 @@
         <v>340507</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3468,13 @@
         <v>68892</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>98</v>
@@ -3489,13 +3483,13 @@
         <v>68892</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3517,13 @@
         <v>340803</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>339</v>
@@ -3538,13 +3532,13 @@
         <v>340803</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3617,13 @@
         <v>113522</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3638,13 +3632,13 @@
         <v>113522</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3666,13 @@
         <v>374688</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>591</v>
@@ -3687,13 +3681,13 @@
         <v>374688</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3766,13 @@
         <v>265616</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>404</v>
@@ -3787,13 +3781,13 @@
         <v>265616</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3815,13 @@
         <v>1316220</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>2061</v>
@@ -3836,13 +3830,13 @@
         <v>1316220</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1167857-46B0-40DC-B647-4F0BB51635FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD41C815-734B-480D-BAFC-F1EECF84F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{747A46A5-2018-45A1-964F-4FDD69CEEAF5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4D387038-212E-40B4-A7F5-7790CA1B6058}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
   <si>
     <t>Población según el lugar donde le realizaron dicha mamografía en 2012 (Tasa respuesta: 22,96%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -76,51 +76,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -142,7 +121,7 @@
     <t>91,34%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>19,55%</t>
@@ -208,40 +187,22 @@
     <t>Población según el lugar donde le realizaron dicha mamografía en 2016 (Tasa respuesta: 23,37%)</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>10,92%</t>
@@ -319,106 +280,94 @@
     <t>Población según el lugar donde le realizaron dicha mamografía en 2023 (Tasa respuesta: 28,19%)</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
 </sst>
 </file>
@@ -830,8 +779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5856FA3F-316B-4131-BA13-25A988A115EF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3750FB-F1EE-48A5-BB91-D6433EEE56D9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -961,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>4187</v>
+        <v>24701</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -976,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>4187</v>
+        <v>24701</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1010,10 +959,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="I5" s="7">
-        <v>60629</v>
+        <v>301350</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1025,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="N5" s="7">
-        <v>60629</v>
+        <v>301350</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1059,10 +1008,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="I6" s="7">
-        <v>64816</v>
+        <v>326051</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1074,10 +1023,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="N6" s="7">
-        <v>64816</v>
+        <v>326051</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1110,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>20514</v>
+        <v>53004</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1125,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>20514</v>
+        <v>53004</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1159,10 +1108,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>227</v>
+        <v>364</v>
       </c>
       <c r="I8" s="7">
-        <v>240722</v>
+        <v>401333</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1174,10 +1123,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>227</v>
+        <v>364</v>
       </c>
       <c r="N8" s="7">
-        <v>240722</v>
+        <v>401333</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1208,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>245</v>
+        <v>410</v>
       </c>
       <c r="I9" s="7">
-        <v>261236</v>
+        <v>454337</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1223,10 +1172,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>410</v>
       </c>
       <c r="N9" s="7">
-        <v>261236</v>
+        <v>454337</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1259,10 +1208,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>53004</v>
+        <v>70167</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1274,10 +1223,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N10" s="7">
-        <v>53004</v>
+        <v>70167</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1308,10 +1257,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="I11" s="7">
-        <v>401333</v>
+        <v>288811</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1323,10 +1272,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="N11" s="7">
-        <v>401333</v>
+        <v>288811</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1357,10 +1306,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="I12" s="7">
-        <v>454337</v>
+        <v>358978</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1372,10 +1321,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="N12" s="7">
-        <v>454337</v>
+        <v>358978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1408,10 +1357,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>70167</v>
+        <v>86164</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1423,10 +1372,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="N13" s="7">
-        <v>70167</v>
+        <v>86164</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1457,10 +1406,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="I14" s="7">
-        <v>288811</v>
+        <v>410081</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1472,10 +1421,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>260</v>
+        <v>386</v>
       </c>
       <c r="N14" s="7">
-        <v>288811</v>
+        <v>410081</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1506,10 +1455,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>318</v>
+        <v>465</v>
       </c>
       <c r="I15" s="7">
-        <v>358978</v>
+        <v>496245</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1521,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>318</v>
+        <v>465</v>
       </c>
       <c r="N15" s="7">
-        <v>358978</v>
+        <v>496245</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1538,7 +1487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,34 +1506,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="I16" s="7">
-        <v>86164</v>
+        <v>234035</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="N16" s="7">
-        <v>86164</v>
+        <v>234035</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,34 +1555,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>386</v>
+        <v>1290</v>
       </c>
       <c r="I17" s="7">
-        <v>410081</v>
+        <v>1401576</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>386</v>
+        <v>1290</v>
       </c>
       <c r="N17" s="7">
-        <v>410081</v>
+        <v>1401576</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,10 +1604,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>465</v>
+        <v>1494</v>
       </c>
       <c r="I18" s="7">
-        <v>496245</v>
+        <v>1635611</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1670,10 +1619,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>465</v>
+        <v>1494</v>
       </c>
       <c r="N18" s="7">
-        <v>496245</v>
+        <v>1635611</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1686,165 +1635,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>204</v>
-      </c>
-      <c r="I19" s="7">
-        <v>234035</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>204</v>
-      </c>
-      <c r="N19" s="7">
-        <v>234035</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1290</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1401577</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1290</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1401577</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1494</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1635612</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1494</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1635612</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1857,8 +1656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87A7257-D4C0-457D-A2CC-4E0DA8D6EEB2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729E9F2B-5B87-415C-B807-48586D81B7D4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,7 +1673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1988,34 +1787,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>2519</v>
+        <v>27101</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>2519</v>
+        <v>27101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,34 +1836,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
+        <v>283</v>
+      </c>
+      <c r="I5" s="7">
+        <v>296343</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="7">
-        <v>54858</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="M5" s="7">
+        <v>283</v>
+      </c>
+      <c r="N5" s="7">
+        <v>296343</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="N5" s="7">
-        <v>54858</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,10 +1885,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="I6" s="7">
-        <v>57377</v>
+        <v>323444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2101,10 +1900,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N6" s="7">
-        <v>57377</v>
+        <v>323444</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2137,34 +1936,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>24582</v>
+        <v>55246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>24582</v>
+        <v>55246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,34 +1985,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>229</v>
+        <v>407</v>
       </c>
       <c r="I8" s="7">
-        <v>241484</v>
+        <v>450648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
-        <v>229</v>
+        <v>407</v>
       </c>
       <c r="N8" s="7">
-        <v>241484</v>
+        <v>450648</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,10 +2034,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>253</v>
+        <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>266066</v>
+        <v>505894</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2250,10 +2049,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>253</v>
+        <v>459</v>
       </c>
       <c r="N9" s="7">
-        <v>266066</v>
+        <v>505894</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2286,34 +2085,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>55246</v>
+        <v>35082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>55246</v>
+        <v>35082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,34 +2134,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>450648</v>
+        <v>301751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>407</v>
+        <v>271</v>
       </c>
       <c r="N11" s="7">
-        <v>450648</v>
+        <v>301751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>459</v>
+        <v>304</v>
       </c>
       <c r="I12" s="7">
-        <v>505894</v>
+        <v>336833</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2399,10 +2198,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>459</v>
+        <v>304</v>
       </c>
       <c r="N12" s="7">
-        <v>505894</v>
+        <v>336833</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2435,34 +2234,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I13" s="7">
-        <v>35082</v>
+        <v>91999</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="N13" s="7">
-        <v>35082</v>
+        <v>91999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,34 +2283,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="I14" s="7">
-        <v>301751</v>
+        <v>432840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>271</v>
+        <v>384</v>
       </c>
       <c r="N14" s="7">
-        <v>301751</v>
+        <v>432840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,10 +2332,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="I15" s="7">
-        <v>336833</v>
+        <v>524839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2548,10 +2347,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>304</v>
+        <v>463</v>
       </c>
       <c r="N15" s="7">
-        <v>336833</v>
+        <v>524839</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2565,7 +2364,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2584,34 +2383,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="I16" s="7">
-        <v>91999</v>
+        <v>209428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="N16" s="7">
-        <v>91999</v>
+        <v>209428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,34 +2432,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>384</v>
+        <v>1345</v>
       </c>
       <c r="I17" s="7">
-        <v>432840</v>
+        <v>1481582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>384</v>
+        <v>1345</v>
       </c>
       <c r="N17" s="7">
-        <v>432840</v>
+        <v>1481582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2481,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>463</v>
+        <v>1535</v>
       </c>
       <c r="I18" s="7">
-        <v>524839</v>
+        <v>1691010</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2697,10 +2496,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>463</v>
+        <v>1535</v>
       </c>
       <c r="N18" s="7">
-        <v>524839</v>
+        <v>1691010</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2713,165 +2512,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>190</v>
-      </c>
-      <c r="I19" s="7">
-        <v>209428</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>190</v>
-      </c>
-      <c r="N19" s="7">
-        <v>209428</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1345</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1481582</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1345</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1481582</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1535</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1691010</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1535</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1691010</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2884,8 +2533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95130CC0-14BF-4C29-8BC2-A0F94B083DF1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A1FF3E-5054-4A8E-84E7-CFA3DBEE3BD1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2901,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3015,34 +2664,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>3480</v>
+        <v>26577</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>3480</v>
+        <v>26577</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,34 +2713,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>102</v>
+        <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>46520</v>
+        <v>244654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>102</v>
+        <v>537</v>
       </c>
       <c r="N5" s="7">
-        <v>46520</v>
+        <v>244654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>109</v>
+        <v>587</v>
       </c>
       <c r="I6" s="7">
-        <v>50000</v>
+        <v>271231</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3128,10 +2777,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>109</v>
+        <v>587</v>
       </c>
       <c r="N6" s="7">
-        <v>50000</v>
+        <v>271231</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3164,34 +2813,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>24794</v>
+        <v>50605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>24794</v>
+        <v>50605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,34 +2862,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>435</v>
+        <v>594</v>
       </c>
       <c r="I8" s="7">
-        <v>213699</v>
+        <v>311697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
-        <v>435</v>
+        <v>594</v>
       </c>
       <c r="N8" s="7">
-        <v>213699</v>
+        <v>311697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,10 +2911,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="I9" s="7">
-        <v>238493</v>
+        <v>362302</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3277,10 +2926,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="N9" s="7">
-        <v>238493</v>
+        <v>362302</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3313,34 +2962,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>54930</v>
+        <v>63626</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>54930</v>
+        <v>63626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,34 +3011,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>594</v>
+        <v>339</v>
       </c>
       <c r="I11" s="7">
-        <v>340507</v>
+        <v>440950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
-        <v>594</v>
+        <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>340507</v>
+        <v>440950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,10 +3060,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>677</v>
+        <v>437</v>
       </c>
       <c r="I12" s="7">
-        <v>395437</v>
+        <v>504576</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3426,10 +3075,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>677</v>
+        <v>437</v>
       </c>
       <c r="N12" s="7">
-        <v>395437</v>
+        <v>504576</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3462,34 +3111,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
+        <v>173</v>
+      </c>
+      <c r="I13" s="7">
+        <v>105316</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="7">
-        <v>68892</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
+        <v>173</v>
+      </c>
+      <c r="N13" s="7">
+        <v>105316</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="7">
-        <v>68892</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,34 +3160,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>339</v>
+        <v>591</v>
       </c>
       <c r="I14" s="7">
-        <v>340803</v>
+        <v>338687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>339</v>
+        <v>591</v>
       </c>
       <c r="N14" s="7">
-        <v>340803</v>
+        <v>338687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,10 +3209,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>437</v>
+        <v>764</v>
       </c>
       <c r="I15" s="7">
-        <v>409695</v>
+        <v>444003</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3575,10 +3224,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>437</v>
+        <v>764</v>
       </c>
       <c r="N15" s="7">
-        <v>409695</v>
+        <v>444003</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3592,7 +3241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3611,34 +3260,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>173</v>
+        <v>404</v>
       </c>
       <c r="I16" s="7">
-        <v>113522</v>
+        <v>246124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>173</v>
+        <v>404</v>
       </c>
       <c r="N16" s="7">
-        <v>113522</v>
+        <v>246124</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,34 +3309,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>591</v>
+        <v>2061</v>
       </c>
       <c r="I17" s="7">
-        <v>374688</v>
+        <v>1335989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>591</v>
+        <v>2061</v>
       </c>
       <c r="N17" s="7">
-        <v>374688</v>
+        <v>1335989</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,10 +3358,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>764</v>
+        <v>2465</v>
       </c>
       <c r="I18" s="7">
-        <v>488210</v>
+        <v>1582113</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3724,10 +3373,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>764</v>
+        <v>2465</v>
       </c>
       <c r="N18" s="7">
-        <v>488210</v>
+        <v>1582113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3740,165 +3389,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>404</v>
-      </c>
-      <c r="I19" s="7">
-        <v>265616</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="7">
-        <v>404</v>
-      </c>
-      <c r="N19" s="7">
-        <v>265616</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2061</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1316220</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2061</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1316220</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2465</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1581836</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2465</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1581836</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
